--- a/document/rmutcon_2018/lab_results/lab_result.xlsx
+++ b/document/rmutcon_2018/lab_results/lab_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\github\r1802_RID_P1\document\rmutcon_2018\lab_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B9E26D-DEA7-47F8-BAD2-44D0523D79D3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222FEF7E-C705-409E-962C-0445BC8A113F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="715" activeTab="3" xr2:uid="{B00CD3F9-FDD7-4198-8957-87EC8BE1D832}"/>
   </bookViews>
@@ -107,18 +107,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +437,8 @@
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="4.7109375" style="1"/>
-    <col min="3" max="4" width="12.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
     <col min="6" max="8" width="12.7109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="4.7109375" style="1"/>
@@ -458,7 +456,7 @@
       <c r="C3" s="2">
         <v>20.0564</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>20</v>
       </c>
       <c r="E3" s="4">
@@ -477,7 +475,7 @@
       <c r="C4" s="2">
         <v>20.0564</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>20</v>
       </c>
       <c r="E4" s="4">
@@ -496,7 +494,7 @@
       <c r="C5" s="2">
         <v>20.0564</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>20</v>
       </c>
       <c r="E5" s="4">
@@ -515,7 +513,7 @@
       <c r="C6" s="2">
         <v>20.0564</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>20</v>
       </c>
       <c r="E6" s="4">
@@ -534,7 +532,7 @@
       <c r="C7" s="2">
         <v>20.0564</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>20</v>
       </c>
       <c r="E7" s="4">
@@ -553,7 +551,7 @@
       <c r="C8" s="2">
         <v>20.0564</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>20</v>
       </c>
       <c r="E8" s="4">
@@ -572,7 +570,7 @@
       <c r="C9" s="2">
         <v>20.0564</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>20</v>
       </c>
       <c r="E9" s="4">
@@ -591,7 +589,7 @@
       <c r="C10" s="2">
         <v>20.0564</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>20</v>
       </c>
       <c r="E10" s="4">
@@ -610,7 +608,7 @@
       <c r="C11" s="2">
         <v>20.0564</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>20</v>
       </c>
       <c r="E11" s="4">
@@ -629,7 +627,7 @@
       <c r="C12" s="2">
         <v>20.0564</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>20</v>
       </c>
       <c r="E12" s="4">
@@ -648,7 +646,7 @@
       <c r="C13" s="2">
         <v>20.0564</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>20</v>
       </c>
       <c r="E13" s="4">
@@ -667,7 +665,7 @@
       <c r="C14" s="2">
         <v>20.0564</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>20</v>
       </c>
       <c r="E14" s="4">
@@ -686,7 +684,7 @@
       <c r="C15" s="2">
         <v>20.0564</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>20</v>
       </c>
       <c r="E15" s="4">
@@ -705,7 +703,7 @@
       <c r="C16" s="2">
         <v>20.0564</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>20</v>
       </c>
       <c r="E16" s="4">
@@ -724,7 +722,7 @@
       <c r="C17" s="2">
         <v>20.0564</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>20</v>
       </c>
       <c r="E17" s="4">
@@ -740,7 +738,7 @@
       <c r="C19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <f>(SUM(D3:D17)/15)</f>
         <v>20</v>
       </c>
@@ -757,7 +755,7 @@
         <f>F20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <f>SQRT(F19)</f>
         <v>0</v>
       </c>
@@ -766,7 +764,7 @@
       <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <f>(D20/SQRT(15))</f>
         <v>0</v>
       </c>
@@ -787,7 +785,8 @@
   <cols>
     <col min="1" max="2" width="4.7109375" style="1"/>
     <col min="3" max="3" width="12.7109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="5" customWidth="1"/>
     <col min="6" max="8" width="12.7109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="4.7109375" style="1"/>
   </cols>
@@ -804,7 +803,7 @@
       <c r="C3" s="5">
         <v>200.04400000000001</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>200</v>
       </c>
       <c r="E3" s="5">
@@ -823,7 +822,7 @@
       <c r="C4" s="5">
         <v>200.04400000000001</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>200</v>
       </c>
       <c r="E4" s="5">
@@ -842,7 +841,7 @@
       <c r="C5" s="5">
         <v>200.04400000000001</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>200</v>
       </c>
       <c r="E5" s="5">
@@ -861,7 +860,7 @@
       <c r="C6" s="5">
         <v>200.04400000000001</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>200</v>
       </c>
       <c r="E6" s="5">
@@ -880,7 +879,7 @@
       <c r="C7" s="5">
         <v>200.04400000000001</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>200</v>
       </c>
       <c r="E7" s="5">
@@ -899,7 +898,7 @@
       <c r="C8" s="5">
         <v>200.04400000000001</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>200</v>
       </c>
       <c r="E8" s="5">
@@ -918,7 +917,7 @@
       <c r="C9" s="5">
         <v>200.04400000000001</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>200</v>
       </c>
       <c r="E9" s="5">
@@ -937,7 +936,7 @@
       <c r="C10" s="5">
         <v>200.04400000000001</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>200</v>
       </c>
       <c r="E10" s="5">
@@ -956,7 +955,7 @@
       <c r="C11" s="5">
         <v>200.04400000000001</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>200</v>
       </c>
       <c r="E11" s="5">
@@ -975,7 +974,7 @@
       <c r="C12" s="5">
         <v>200.04400000000001</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>200</v>
       </c>
       <c r="E12" s="5">
@@ -994,7 +993,7 @@
       <c r="C13" s="5">
         <v>200.04400000000001</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>200</v>
       </c>
       <c r="E13" s="5">
@@ -1013,7 +1012,7 @@
       <c r="C14" s="5">
         <v>200.04400000000001</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>201</v>
       </c>
       <c r="E14" s="5">
@@ -1032,7 +1031,7 @@
       <c r="C15" s="5">
         <v>200.04400000000001</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>200</v>
       </c>
       <c r="E15" s="5">
@@ -1051,7 +1050,7 @@
       <c r="C16" s="5">
         <v>200.04400000000001</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>200</v>
       </c>
       <c r="E16" s="5">
@@ -1070,7 +1069,7 @@
       <c r="C17" s="5">
         <v>200.04400000000001</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>200</v>
       </c>
       <c r="E17" s="5">
@@ -1086,7 +1085,7 @@
       <c r="C19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <f>(SUM(D3:D17)/15)</f>
         <v>200.06666666666666</v>
       </c>
@@ -1099,11 +1098,11 @@
       <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <f>F20</f>
         <v>0.2581988897471611</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <f>SQRT(F19)</f>
         <v>0.2581988897471611</v>
       </c>
@@ -1112,7 +1111,7 @@
       <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="7">
         <f>(D20/SQRT(15))</f>
         <v>6.6666666666666652E-2</v>
       </c>
@@ -1132,7 +1131,8 @@
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="4.7109375" style="1"/>
-    <col min="3" max="4" width="12.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
     <col min="6" max="8" width="12.7109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="4.7109375" style="1"/>
@@ -1150,7 +1150,7 @@
       <c r="C3" s="4">
         <v>1004.19</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1004</v>
       </c>
       <c r="E3" s="4">
@@ -1169,7 +1169,7 @@
       <c r="C4" s="4">
         <v>1004.19</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1004</v>
       </c>
       <c r="E4" s="4">
@@ -1188,7 +1188,7 @@
       <c r="C5" s="4">
         <v>1004.19</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1004</v>
       </c>
       <c r="E5" s="4">
@@ -1207,7 +1207,7 @@
       <c r="C6" s="4">
         <v>1004.19</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>1005</v>
       </c>
       <c r="E6" s="4">
@@ -1226,7 +1226,7 @@
       <c r="C7" s="4">
         <v>1004.19</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1004</v>
       </c>
       <c r="E7" s="4">
@@ -1245,7 +1245,7 @@
       <c r="C8" s="4">
         <v>1004.19</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>1004</v>
       </c>
       <c r="E8" s="4">
@@ -1264,7 +1264,7 @@
       <c r="C9" s="4">
         <v>1004.19</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>1004</v>
       </c>
       <c r="E9" s="4">
@@ -1283,7 +1283,7 @@
       <c r="C10" s="4">
         <v>1004.19</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>1004</v>
       </c>
       <c r="E10" s="4">
@@ -1302,7 +1302,7 @@
       <c r="C11" s="4">
         <v>1004.19</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>1005</v>
       </c>
       <c r="E11" s="4">
@@ -1321,7 +1321,7 @@
       <c r="C12" s="4">
         <v>1004.19</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>1004</v>
       </c>
       <c r="E12" s="4">
@@ -1340,7 +1340,7 @@
       <c r="C13" s="4">
         <v>1004.19</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1004</v>
       </c>
       <c r="E13" s="4">
@@ -1359,7 +1359,7 @@
       <c r="C14" s="4">
         <v>1004.19</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>1004</v>
       </c>
       <c r="E14" s="4">
@@ -1378,7 +1378,7 @@
       <c r="C15" s="4">
         <v>1004.19</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>1004</v>
       </c>
       <c r="E15" s="4">
@@ -1397,7 +1397,7 @@
       <c r="C16" s="4">
         <v>1004.19</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>1005</v>
       </c>
       <c r="E16" s="4">
@@ -1416,7 +1416,7 @@
       <c r="C17" s="4">
         <v>1004.19</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>1004</v>
       </c>
       <c r="E17" s="4">
@@ -1432,7 +1432,7 @@
       <c r="C19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <f>(SUM(D3:D17)/15)</f>
         <v>1004.2</v>
       </c>
@@ -1449,7 +1449,7 @@
         <f>F20</f>
         <v>0.41403933560541262</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <f>SQRT(F19)</f>
         <v>0.41403933560541262</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <f>(D20/SQRT(15))</f>
         <v>0.10690449676496977</v>
       </c>
@@ -1478,7 +1478,8 @@
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="4.7109375" style="1"/>
-    <col min="3" max="4" width="12.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
     <col min="6" max="8" width="12.7109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="4.7109375" style="1"/>
@@ -1496,7 +1497,7 @@
       <c r="C3" s="4">
         <v>2006.27</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>2006</v>
       </c>
       <c r="E3" s="4">
@@ -1515,7 +1516,7 @@
       <c r="C4" s="4">
         <v>2006.27</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2006</v>
       </c>
       <c r="E4" s="4">
@@ -1534,7 +1535,7 @@
       <c r="C5" s="4">
         <v>2006.27</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>2007</v>
       </c>
       <c r="E5" s="4">
@@ -1553,7 +1554,7 @@
       <c r="C6" s="4">
         <v>2006.27</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2006</v>
       </c>
       <c r="E6" s="4">
@@ -1572,7 +1573,7 @@
       <c r="C7" s="4">
         <v>2006.27</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2006</v>
       </c>
       <c r="E7" s="4">
@@ -1591,7 +1592,7 @@
       <c r="C8" s="4">
         <v>2006.27</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>2007</v>
       </c>
       <c r="E8" s="4">
@@ -1610,7 +1611,7 @@
       <c r="C9" s="4">
         <v>2006.27</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>2006</v>
       </c>
       <c r="E9" s="4">
@@ -1629,7 +1630,7 @@
       <c r="C10" s="4">
         <v>2006.27</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>2006</v>
       </c>
       <c r="E10" s="4">
@@ -1648,7 +1649,7 @@
       <c r="C11" s="4">
         <v>2006.27</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>2006</v>
       </c>
       <c r="E11" s="4">
@@ -1667,7 +1668,7 @@
       <c r="C12" s="4">
         <v>2006.27</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>2007</v>
       </c>
       <c r="E12" s="4">
@@ -1686,7 +1687,7 @@
       <c r="C13" s="4">
         <v>2006.27</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>2006</v>
       </c>
       <c r="E13" s="4">
@@ -1705,7 +1706,7 @@
       <c r="C14" s="4">
         <v>2006.27</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>2006</v>
       </c>
       <c r="E14" s="4">
@@ -1724,7 +1725,7 @@
       <c r="C15" s="4">
         <v>2006.27</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>2007</v>
       </c>
       <c r="E15" s="4">
@@ -1743,7 +1744,7 @@
       <c r="C16" s="4">
         <v>2006.27</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>2006</v>
       </c>
       <c r="E16" s="4">
@@ -1762,7 +1763,7 @@
       <c r="C17" s="4">
         <v>2006.27</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>2007</v>
       </c>
       <c r="E17" s="4">
@@ -1778,7 +1779,7 @@
       <c r="C19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <f>(SUM(D3:D17)/15)</f>
         <v>2006.3333333333333</v>
       </c>
@@ -1795,7 +1796,7 @@
         <f>F20</f>
         <v>0.4879500364742666</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <f>SQRT(F19)</f>
         <v>0.4879500364742666</v>
       </c>
@@ -1804,7 +1805,7 @@
       <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <f>(D20/SQRT(15))</f>
         <v>0.12598815766974242</v>
       </c>
